--- a/期权交易文档/xlsx/50ETF-华泰-2016.1.1-2016.3.31.xlsx
+++ b/期权交易文档/xlsx/50ETF-华泰-2016.1.1-2016.3.31.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26490" windowHeight="10545"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="10548"/>
   </bookViews>
   <sheets>
     <sheet name="50ETF-华泰-2016.1.1-2016.3.31" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="43">
   <si>
     <t>成交日期</t>
   </si>
@@ -149,13 +149,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,345 +158,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -510,251 +180,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -769,57 +197,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1081,19 +462,23 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="14.77734375" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
@@ -1179,7 +564,7 @@
         <v>42447</v>
       </c>
       <c r="B3" s="2">
-        <v>0.607175925925926</v>
+        <v>0.60717592592592595</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
@@ -1220,7 +605,7 @@
         <v>42447</v>
       </c>
       <c r="B4" s="2">
-        <v>0.60224537037037</v>
+        <v>0.60224537037036996</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
@@ -1238,7 +623,7 @@
         <v>16</v>
       </c>
       <c r="H4">
-        <v>0.2852</v>
+        <v>0.28520000000000001</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -1279,7 +664,7 @@
         <v>21</v>
       </c>
       <c r="H5">
-        <v>0.195</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="I5">
         <v>2</v>
@@ -1302,7 +687,7 @@
         <v>42446</v>
       </c>
       <c r="B6" s="2">
-        <v>0.409143518518519</v>
+        <v>0.40914351851851899</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1343,7 +728,7 @@
         <v>42446</v>
       </c>
       <c r="B7" s="2">
-        <v>0.408993055555556</v>
+        <v>0.40899305555555598</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -1361,7 +746,7 @@
         <v>16</v>
       </c>
       <c r="H7">
-        <v>0.298</v>
+        <v>0.29799999999999999</v>
       </c>
       <c r="I7">
         <v>3</v>
@@ -1384,7 +769,7 @@
         <v>42446</v>
       </c>
       <c r="B8" s="2">
-        <v>0.407893518518519</v>
+        <v>0.40789351851851902</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
@@ -1402,7 +787,7 @@
         <v>21</v>
       </c>
       <c r="H8">
-        <v>0.1947</v>
+        <v>0.19470000000000001</v>
       </c>
       <c r="I8">
         <v>2</v>
@@ -1425,7 +810,7 @@
         <v>42446</v>
       </c>
       <c r="B9" s="2">
-        <v>0.407592592592593</v>
+        <v>0.40759259259259301</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
@@ -1466,7 +851,7 @@
         <v>42444</v>
       </c>
       <c r="B10" s="2">
-        <v>0.449606481481481</v>
+        <v>0.44960648148148102</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
@@ -1484,7 +869,7 @@
         <v>16</v>
       </c>
       <c r="H10">
-        <v>0.0031</v>
+        <v>3.0999999999999999E-3</v>
       </c>
       <c r="I10">
         <v>5</v>
@@ -1507,7 +892,7 @@
         <v>42444</v>
       </c>
       <c r="B11" s="2">
-        <v>0.428634259259259</v>
+        <v>0.42863425925925902</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
@@ -1525,7 +910,7 @@
         <v>16</v>
       </c>
       <c r="H11">
-        <v>0.0163</v>
+        <v>1.6299999999999999E-2</v>
       </c>
       <c r="I11">
         <v>2</v>
@@ -1566,7 +951,7 @@
         <v>21</v>
       </c>
       <c r="H12">
-        <v>0.0154</v>
+        <v>1.54E-2</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -1589,7 +974,7 @@
         <v>42437</v>
       </c>
       <c r="B13" s="2">
-        <v>0.453842592592593</v>
+        <v>0.45384259259259302</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
@@ -1607,7 +992,7 @@
         <v>21</v>
       </c>
       <c r="H13">
-        <v>0.0391</v>
+        <v>3.9100000000000003E-2</v>
       </c>
       <c r="I13">
         <v>2</v>
@@ -1630,7 +1015,7 @@
         <v>42437</v>
       </c>
       <c r="B14" s="2">
-        <v>0.452928240740741</v>
+        <v>0.45292824074074101</v>
       </c>
       <c r="C14" t="s">
         <v>13</v>
@@ -1648,7 +1033,7 @@
         <v>21</v>
       </c>
       <c r="H14">
-        <v>0.0095</v>
+        <v>9.4999999999999998E-3</v>
       </c>
       <c r="I14">
         <v>8</v>
@@ -1671,7 +1056,7 @@
         <v>42437</v>
       </c>
       <c r="B15" s="2">
-        <v>0.451782407407407</v>
+        <v>0.45178240740740699</v>
       </c>
       <c r="C15" t="s">
         <v>13</v>
@@ -1689,7 +1074,7 @@
         <v>21</v>
       </c>
       <c r="H15">
-        <v>0.0151</v>
+        <v>1.5100000000000001E-2</v>
       </c>
       <c r="I15">
         <v>4</v>
@@ -1753,7 +1138,7 @@
         <v>42433</v>
       </c>
       <c r="B17" s="2">
-        <v>0.587974537037037</v>
+        <v>0.58797453703703695</v>
       </c>
       <c r="C17" t="s">
         <v>13</v>
@@ -1771,7 +1156,7 @@
         <v>21</v>
       </c>
       <c r="H17">
-        <v>0.165</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -1794,7 +1179,7 @@
         <v>42433</v>
       </c>
       <c r="B18" s="2">
-        <v>0.584652777777778</v>
+        <v>0.58465277777777802</v>
       </c>
       <c r="C18" t="s">
         <v>13</v>
@@ -1812,7 +1197,7 @@
         <v>21</v>
       </c>
       <c r="H18">
-        <v>0.1989</v>
+        <v>0.19889999999999999</v>
       </c>
       <c r="I18">
         <v>2</v>
@@ -1835,7 +1220,7 @@
         <v>42433</v>
       </c>
       <c r="B19" s="2">
-        <v>0.58349537037037</v>
+        <v>0.58349537037037003</v>
       </c>
       <c r="C19" t="s">
         <v>13</v>
@@ -1876,7 +1261,7 @@
         <v>42433</v>
       </c>
       <c r="B20" s="2">
-        <v>0.583159722222222</v>
+        <v>0.58315972222222201</v>
       </c>
       <c r="C20" t="s">
         <v>13</v>
@@ -1894,7 +1279,7 @@
         <v>16</v>
       </c>
       <c r="H20">
-        <v>0.2926</v>
+        <v>0.29260000000000003</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -1917,7 +1302,7 @@
         <v>42432</v>
       </c>
       <c r="B21" s="2">
-        <v>0.573599537037037</v>
+        <v>0.57359953703703703</v>
       </c>
       <c r="C21" t="s">
         <v>13</v>
@@ -1935,7 +1320,7 @@
         <v>16</v>
       </c>
       <c r="H21">
-        <v>0.0295</v>
+        <v>2.9499999999999998E-2</v>
       </c>
       <c r="I21">
         <v>2</v>
@@ -1958,7 +1343,7 @@
         <v>42432</v>
       </c>
       <c r="B22" s="2">
-        <v>0.573472222222222</v>
+        <v>0.57347222222222205</v>
       </c>
       <c r="C22" t="s">
         <v>13</v>
@@ -1976,7 +1361,7 @@
         <v>16</v>
       </c>
       <c r="H22">
-        <v>0.0295</v>
+        <v>2.9499999999999998E-2</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -1999,7 +1384,7 @@
         <v>42432</v>
       </c>
       <c r="B23" s="2">
-        <v>0.570659722222222</v>
+        <v>0.57065972222222205</v>
       </c>
       <c r="C23" t="s">
         <v>13</v>
@@ -2017,7 +1402,7 @@
         <v>16</v>
       </c>
       <c r="H23">
-        <v>0.0314</v>
+        <v>3.1399999999999997E-2</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -2040,7 +1425,7 @@
         <v>42432</v>
       </c>
       <c r="B24" s="2">
-        <v>0.570416666666667</v>
+        <v>0.57041666666666702</v>
       </c>
       <c r="C24" t="s">
         <v>13</v>
@@ -2058,7 +1443,7 @@
         <v>16</v>
       </c>
       <c r="H24">
-        <v>0.0314</v>
+        <v>3.1399999999999997E-2</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -2099,7 +1484,7 @@
         <v>16</v>
       </c>
       <c r="H25">
-        <v>0.0308</v>
+        <v>3.0800000000000001E-2</v>
       </c>
       <c r="I25">
         <v>1</v>
@@ -2122,7 +1507,7 @@
         <v>42432</v>
       </c>
       <c r="B26" s="2">
-        <v>0.568310185185185</v>
+        <v>0.56831018518518495</v>
       </c>
       <c r="C26" t="s">
         <v>13</v>
@@ -2140,7 +1525,7 @@
         <v>16</v>
       </c>
       <c r="H26">
-        <v>0.0308</v>
+        <v>3.0800000000000001E-2</v>
       </c>
       <c r="I26">
         <v>1</v>
@@ -2163,7 +1548,7 @@
         <v>42432</v>
       </c>
       <c r="B27" s="2">
-        <v>0.566956018518519</v>
+        <v>0.56695601851851896</v>
       </c>
       <c r="C27" t="s">
         <v>13</v>
@@ -2181,7 +1566,7 @@
         <v>16</v>
       </c>
       <c r="H27">
-        <v>0.0312</v>
+        <v>3.1199999999999999E-2</v>
       </c>
       <c r="I27">
         <v>1</v>
@@ -2204,7 +1589,7 @@
         <v>42431</v>
       </c>
       <c r="B28" s="2">
-        <v>0.541666666666667</v>
+        <v>0.54166666666666696</v>
       </c>
       <c r="C28" t="s">
         <v>13</v>
@@ -2222,7 +1607,7 @@
         <v>16</v>
       </c>
       <c r="H28">
-        <v>0.0198</v>
+        <v>1.9800000000000002E-2</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -2245,7 +1630,7 @@
         <v>42431</v>
       </c>
       <c r="B29" s="2">
-        <v>0.478425925925926</v>
+        <v>0.47842592592592598</v>
       </c>
       <c r="C29" t="s">
         <v>13</v>
@@ -2263,7 +1648,7 @@
         <v>16</v>
       </c>
       <c r="H29">
-        <v>0.0193</v>
+        <v>1.9300000000000001E-2</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -2286,7 +1671,7 @@
         <v>42431</v>
       </c>
       <c r="B30" s="2">
-        <v>0.478194444444444</v>
+        <v>0.47819444444444398</v>
       </c>
       <c r="C30" t="s">
         <v>13</v>
@@ -2304,7 +1689,7 @@
         <v>16</v>
       </c>
       <c r="H30">
-        <v>0.0192</v>
+        <v>1.9199999999999998E-2</v>
       </c>
       <c r="I30">
         <v>3</v>
@@ -2327,7 +1712,7 @@
         <v>42426</v>
       </c>
       <c r="B31" s="2">
-        <v>0.604293981481482</v>
+        <v>0.60429398148148195</v>
       </c>
       <c r="C31" t="s">
         <v>13</v>
@@ -2345,7 +1730,7 @@
         <v>21</v>
       </c>
       <c r="H31">
-        <v>0.1566</v>
+        <v>0.15659999999999999</v>
       </c>
       <c r="I31">
         <v>1</v>
@@ -2368,7 +1753,7 @@
         <v>42425</v>
       </c>
       <c r="B32" s="2">
-        <v>0.607858796296296</v>
+        <v>0.60785879629629602</v>
       </c>
       <c r="C32" t="s">
         <v>13</v>
@@ -2386,7 +1771,7 @@
         <v>21</v>
       </c>
       <c r="H32">
-        <v>0.0143</v>
+        <v>1.43E-2</v>
       </c>
       <c r="I32">
         <v>1</v>
@@ -2409,7 +1794,7 @@
         <v>42425</v>
       </c>
       <c r="B33" s="2">
-        <v>0.604756944444444</v>
+        <v>0.60475694444444394</v>
       </c>
       <c r="C33" t="s">
         <v>13</v>
@@ -2427,7 +1812,7 @@
         <v>21</v>
       </c>
       <c r="H33">
-        <v>0.0144</v>
+        <v>1.44E-2</v>
       </c>
       <c r="I33">
         <v>7</v>
@@ -2450,7 +1835,7 @@
         <v>42425</v>
       </c>
       <c r="B34" s="2">
-        <v>0.603773148148148</v>
+        <v>0.60377314814814798</v>
       </c>
       <c r="C34" t="s">
         <v>13</v>
@@ -2468,7 +1853,7 @@
         <v>16</v>
       </c>
       <c r="H34">
-        <v>0.0361</v>
+        <v>3.61E-2</v>
       </c>
       <c r="I34">
         <v>2</v>
@@ -2491,7 +1876,7 @@
         <v>42425</v>
       </c>
       <c r="B35" s="2">
-        <v>0.595289351851852</v>
+        <v>0.59528935185185206</v>
       </c>
       <c r="C35" t="s">
         <v>13</v>
@@ -2509,7 +1894,7 @@
         <v>21</v>
       </c>
       <c r="H35">
-        <v>0.0423</v>
+        <v>4.2299999999999997E-2</v>
       </c>
       <c r="I35">
         <v>2</v>
@@ -2532,7 +1917,7 @@
         <v>42425</v>
       </c>
       <c r="B36" s="2">
-        <v>0.591388888888889</v>
+        <v>0.59138888888888896</v>
       </c>
       <c r="C36" t="s">
         <v>13</v>
@@ -2550,7 +1935,7 @@
         <v>16</v>
       </c>
       <c r="H36">
-        <v>0.0631</v>
+        <v>6.3100000000000003E-2</v>
       </c>
       <c r="I36">
         <v>2</v>
@@ -2573,7 +1958,7 @@
         <v>42425</v>
       </c>
       <c r="B37" s="2">
-        <v>0.587928240740741</v>
+        <v>0.58792824074074101</v>
       </c>
       <c r="C37" t="s">
         <v>13</v>
@@ -2591,7 +1976,7 @@
         <v>21</v>
       </c>
       <c r="H37">
-        <v>0.067</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="I37">
         <v>2</v>
@@ -2614,7 +1999,7 @@
         <v>42425</v>
       </c>
       <c r="B38" s="2">
-        <v>0.581527777777778</v>
+        <v>0.58152777777777798</v>
       </c>
       <c r="C38" t="s">
         <v>13</v>
@@ -2632,7 +2017,7 @@
         <v>16</v>
       </c>
       <c r="H38">
-        <v>0.0591</v>
+        <v>5.91E-2</v>
       </c>
       <c r="I38">
         <v>1</v>
@@ -2655,7 +2040,7 @@
         <v>42425</v>
       </c>
       <c r="B39" s="2">
-        <v>0.579722222222222</v>
+        <v>0.57972222222222203</v>
       </c>
       <c r="C39" t="s">
         <v>13</v>
@@ -2673,7 +2058,7 @@
         <v>21</v>
       </c>
       <c r="H39">
-        <v>0.0564</v>
+        <v>5.6399999999999999E-2</v>
       </c>
       <c r="I39">
         <v>1</v>
@@ -2696,7 +2081,7 @@
         <v>42425</v>
       </c>
       <c r="B40" s="2">
-        <v>0.579386574074074</v>
+        <v>0.57938657407407401</v>
       </c>
       <c r="C40" t="s">
         <v>13</v>
@@ -2714,7 +2099,7 @@
         <v>16</v>
       </c>
       <c r="H40">
-        <v>0.0727</v>
+        <v>7.2700000000000001E-2</v>
       </c>
       <c r="I40">
         <v>1</v>
@@ -2737,7 +2122,7 @@
         <v>42425</v>
       </c>
       <c r="B41" s="2">
-        <v>0.566458333333333</v>
+        <v>0.56645833333333295</v>
       </c>
       <c r="C41" t="s">
         <v>13</v>
@@ -2755,7 +2140,7 @@
         <v>21</v>
       </c>
       <c r="H41">
-        <v>0.0674</v>
+        <v>6.7400000000000002E-2</v>
       </c>
       <c r="I41">
         <v>1</v>
@@ -2778,7 +2163,7 @@
         <v>42423</v>
       </c>
       <c r="B42" s="2">
-        <v>0.567025462962963</v>
+        <v>0.56702546296296297</v>
       </c>
       <c r="C42" t="s">
         <v>13</v>
@@ -2796,7 +2181,7 @@
         <v>21</v>
       </c>
       <c r="H42">
-        <v>0.0297</v>
+        <v>2.9700000000000001E-2</v>
       </c>
       <c r="I42">
         <v>5</v>
@@ -2819,7 +2204,7 @@
         <v>42423</v>
       </c>
       <c r="B43" s="2">
-        <v>0.565763888888889</v>
+        <v>0.56576388888888896</v>
       </c>
       <c r="C43" t="s">
         <v>13</v>
@@ -2837,7 +2222,7 @@
         <v>16</v>
       </c>
       <c r="H43">
-        <v>0.0071</v>
+        <v>7.1000000000000004E-3</v>
       </c>
       <c r="I43">
         <v>5</v>
@@ -2860,7 +2245,7 @@
         <v>42423</v>
       </c>
       <c r="B44" s="2">
-        <v>0.565532407407407</v>
+        <v>0.56553240740740696</v>
       </c>
       <c r="C44" t="s">
         <v>13</v>
@@ -2878,7 +2263,7 @@
         <v>21</v>
       </c>
       <c r="H44">
-        <v>0.0073</v>
+        <v>7.3000000000000001E-3</v>
       </c>
       <c r="I44">
         <v>5</v>
@@ -2901,7 +2286,7 @@
         <v>42423</v>
       </c>
       <c r="B45" s="2">
-        <v>0.562638888888889</v>
+        <v>0.56263888888888902</v>
       </c>
       <c r="C45" t="s">
         <v>13</v>
@@ -2919,7 +2304,7 @@
         <v>16</v>
       </c>
       <c r="H45">
-        <v>0.0004</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="I45">
         <v>1</v>
@@ -2942,7 +2327,7 @@
         <v>42423</v>
       </c>
       <c r="B46" s="2">
-        <v>0.562546296296296</v>
+        <v>0.56254629629629604</v>
       </c>
       <c r="C46" t="s">
         <v>13</v>
@@ -2960,7 +2345,7 @@
         <v>21</v>
       </c>
       <c r="H46">
-        <v>0.0003</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="I46">
         <v>1</v>
@@ -2983,7 +2368,7 @@
         <v>42419</v>
       </c>
       <c r="B47" s="2">
-        <v>0.618159722222222</v>
+        <v>0.61815972222222204</v>
       </c>
       <c r="C47" t="s">
         <v>13</v>
@@ -3001,7 +2386,7 @@
         <v>16</v>
       </c>
       <c r="H47">
-        <v>0.1944</v>
+        <v>0.19439999999999999</v>
       </c>
       <c r="I47">
         <v>1</v>
@@ -3024,7 +2409,7 @@
         <v>42415</v>
       </c>
       <c r="B48" s="2">
-        <v>0.552094907407407</v>
+        <v>0.55209490740740697</v>
       </c>
       <c r="C48" t="s">
         <v>13</v>
@@ -3042,7 +2427,7 @@
         <v>21</v>
       </c>
       <c r="H48">
-        <v>0.204</v>
+        <v>0.20399999999999999</v>
       </c>
       <c r="I48">
         <v>1</v>
@@ -3065,7 +2450,7 @@
         <v>42398</v>
       </c>
       <c r="B49" s="2">
-        <v>0.604548611111111</v>
+        <v>0.60454861111111102</v>
       </c>
       <c r="C49" t="s">
         <v>13</v>
@@ -3083,7 +2468,7 @@
         <v>21</v>
       </c>
       <c r="H49">
-        <v>0.2151</v>
+        <v>0.21510000000000001</v>
       </c>
       <c r="I49">
         <v>1</v>
@@ -3106,7 +2491,7 @@
         <v>42398</v>
       </c>
       <c r="B50" s="2">
-        <v>0.59962962962963</v>
+        <v>0.59962962962962996</v>
       </c>
       <c r="C50" t="s">
         <v>13</v>
@@ -3124,7 +2509,7 @@
         <v>21</v>
       </c>
       <c r="H50">
-        <v>0.138</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="I50">
         <v>1</v>
@@ -3147,7 +2532,7 @@
         <v>42398</v>
       </c>
       <c r="B51" s="2">
-        <v>0.589027777777778</v>
+        <v>0.58902777777777804</v>
       </c>
       <c r="C51" t="s">
         <v>13</v>
@@ -3165,7 +2550,7 @@
         <v>21</v>
       </c>
       <c r="H51">
-        <v>0.205</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="I51">
         <v>1</v>
@@ -3188,7 +2573,7 @@
         <v>42398</v>
       </c>
       <c r="B52" s="2">
-        <v>0.563819444444444</v>
+        <v>0.56381944444444398</v>
       </c>
       <c r="C52" t="s">
         <v>13</v>
@@ -3206,7 +2591,7 @@
         <v>21</v>
       </c>
       <c r="H52">
-        <v>0.2093</v>
+        <v>0.20930000000000001</v>
       </c>
       <c r="I52">
         <v>1</v>
@@ -3229,7 +2614,7 @@
         <v>42398</v>
       </c>
       <c r="B53" s="2">
-        <v>0.56349537037037</v>
+        <v>0.56349537037037001</v>
       </c>
       <c r="C53" t="s">
         <v>13</v>
@@ -3247,7 +2632,7 @@
         <v>16</v>
       </c>
       <c r="H53">
-        <v>0.0665</v>
+        <v>6.6500000000000004E-2</v>
       </c>
       <c r="I53">
         <v>1</v>
@@ -3270,7 +2655,7 @@
         <v>42398</v>
       </c>
       <c r="B54" s="2">
-        <v>0.562858796296296</v>
+        <v>0.56285879629629598</v>
       </c>
       <c r="C54" t="s">
         <v>13</v>
@@ -3288,7 +2673,7 @@
         <v>21</v>
       </c>
       <c r="H54">
-        <v>0.2108</v>
+        <v>0.21079999999999999</v>
       </c>
       <c r="I54">
         <v>1</v>
@@ -3311,7 +2696,7 @@
         <v>42398</v>
       </c>
       <c r="B55" s="2">
-        <v>0.562650462962963</v>
+        <v>0.56265046296296295</v>
       </c>
       <c r="C55" t="s">
         <v>13</v>
@@ -3329,7 +2714,7 @@
         <v>16</v>
       </c>
       <c r="H55">
-        <v>0.1945</v>
+        <v>0.19450000000000001</v>
       </c>
       <c r="I55">
         <v>1</v>
@@ -3352,7 +2737,7 @@
         <v>42396</v>
       </c>
       <c r="B56" s="2">
-        <v>0.456157407407407</v>
+        <v>0.45615740740740701</v>
       </c>
       <c r="C56" t="s">
         <v>13</v>
@@ -3370,7 +2755,7 @@
         <v>21</v>
       </c>
       <c r="H56">
-        <v>0.1659</v>
+        <v>0.16589999999999999</v>
       </c>
       <c r="I56">
         <v>1</v>
@@ -3393,7 +2778,7 @@
         <v>42394</v>
       </c>
       <c r="B57" s="2">
-        <v>0.584722222222222</v>
+        <v>0.58472222222222203</v>
       </c>
       <c r="C57" t="s">
         <v>13</v>
@@ -3411,7 +2796,7 @@
         <v>16</v>
       </c>
       <c r="H57">
-        <v>0.075</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="I57">
         <v>3</v>
@@ -3452,7 +2837,7 @@
         <v>16</v>
       </c>
       <c r="H58">
-        <v>0.0468</v>
+        <v>4.6800000000000001E-2</v>
       </c>
       <c r="I58">
         <v>2</v>
@@ -3475,7 +2860,7 @@
         <v>42387</v>
       </c>
       <c r="B59" s="2">
-        <v>0.461365740740741</v>
+        <v>0.46136574074074099</v>
       </c>
       <c r="C59" t="s">
         <v>13</v>
@@ -3493,7 +2878,7 @@
         <v>21</v>
       </c>
       <c r="H59">
-        <v>0.2789</v>
+        <v>0.27889999999999998</v>
       </c>
       <c r="I59">
         <v>1</v>
@@ -3516,7 +2901,7 @@
         <v>42384</v>
       </c>
       <c r="B60" s="2">
-        <v>0.551018518518518</v>
+        <v>0.55101851851851802</v>
       </c>
       <c r="C60" t="s">
         <v>13</v>
@@ -3534,7 +2919,7 @@
         <v>21</v>
       </c>
       <c r="H60">
-        <v>0.2874</v>
+        <v>0.28739999999999999</v>
       </c>
       <c r="I60">
         <v>1</v>
@@ -3557,7 +2942,7 @@
         <v>42380</v>
       </c>
       <c r="B61" s="2">
-        <v>0.561365740740741</v>
+        <v>0.56136574074074097</v>
       </c>
       <c r="C61" t="s">
         <v>13</v>
@@ -3575,7 +2960,7 @@
         <v>21</v>
       </c>
       <c r="H61">
-        <v>0.3081</v>
+        <v>0.30809999999999998</v>
       </c>
       <c r="I61">
         <v>1</v>
@@ -3594,7 +2979,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>